--- a/public/data/ManualTemplate.xlsx
+++ b/public/data/ManualTemplate.xlsx
@@ -5,16 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dftools\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin.dizon\Documents\Projects\dftools\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3F02FC-2357-48BF-8025-E97D0ED407E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935AE9FF-C069-4B08-A4C3-0B27CC6BB953}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-930" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WEIGHT" sheetId="3" r:id="rId1"/>
-    <sheet name="DESGN" sheetId="4" r:id="rId2"/>
+    <sheet name="DESGN" sheetId="5" r:id="rId1"/>
+    <sheet name="PR" sheetId="6" r:id="rId2"/>
+    <sheet name="LOGO" sheetId="7" r:id="rId3"/>
+    <sheet name="CUSTOM" sheetId="8" r:id="rId4"/>
+    <sheet name="LEGACY" sheetId="9" r:id="rId5"/>
+    <sheet name="LGSTCS" sheetId="10" r:id="rId6"/>
+    <sheet name="WML" sheetId="11" r:id="rId7"/>
+    <sheet name="VQA" sheetId="12" r:id="rId8"/>
+    <sheet name="DBA" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="20">
   <si>
     <t>Employee ID</t>
   </si>
@@ -58,13 +65,40 @@
     <t>Overall</t>
   </si>
   <si>
-    <t>DESGN</t>
-  </si>
-  <si>
-    <t>Productivity Score</t>
-  </si>
-  <si>
-    <t>Product Knowledge Test</t>
+    <t>PR Calibration</t>
+  </si>
+  <si>
+    <t>Logo Quality</t>
+  </si>
+  <si>
+    <t>Design Quality</t>
+  </si>
+  <si>
+    <t>PKT</t>
+  </si>
+  <si>
+    <t>MD/YPB Quality</t>
+  </si>
+  <si>
+    <t>Effectiveness</t>
+  </si>
+  <si>
+    <t>Client Escalations</t>
+  </si>
+  <si>
+    <t>PSI Quality (CE)</t>
+  </si>
+  <si>
+    <t>FCR</t>
+  </si>
+  <si>
+    <t>TL Audit</t>
+  </si>
+  <si>
+    <t>Disputed Audit</t>
+  </si>
+  <si>
+    <t>External Calibration</t>
   </si>
 </sst>
 </file>
@@ -91,7 +125,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -99,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,8 +141,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
@@ -122,21 +159,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
+    <cellStyle name="Accent1" xfId="5" builtinId="29"/>
+    <cellStyle name="Accent5" xfId="6" builtinId="45"/>
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{A5FAD43E-F267-4A99-A648-9188C3FC62BC}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{2D570202-DB3A-4E98-82C4-11826F8924D5}"/>
@@ -418,187 +468,725 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94765919-EC49-4787-9B93-CE5D13B48C2A}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE0C6AF-D1FB-49A2-BA68-2BFDC80FCC22}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>SUM(B2:B7) * 100</f>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5">
+        <f>SUM(B2:G2)</f>
         <v>100</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <f>SUMPRODUCT(B3:G3,$B$2:$G$2)/SUM($B$2:$G$2)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H3" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631123C5-DB1A-4494-8151-0AB55CDF9F1E}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63188E2-FDA2-4125-90AC-E4B08628145A}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="20.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5">
+        <f>SUM(B2:G2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <f>SUMPRODUCT(B3:G3,$B$2:$G$2)/SUM($B$2:$G$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5FBD04-3D36-4B1A-A375-C883BE033494}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="16.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5">
+        <f>SUM(B2:H2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <f>SUMPRODUCT(B3:H3,$B$2:$H$2)/SUM($B$2:$H$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FEEDEC-8BBC-4CDE-B326-58B05E9A3869}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="16.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H2">
-        <f>(B2 * WEIGHT!$B$2)+(C2 * WEIGHT!$B$3)+(D2 * WEIGHT!$B$4)+(E2 * WEIGHT!$B$5)+(F2 * WEIGHT!$B$6)+(G2 * WEIGHT!$B$7)</f>
-        <v>0</v>
+      <c r="A2" s="3"/>
+      <c r="B2" s="5">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5">
+        <f>SUM(B2:G2)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H3" s="1">
-        <f>(B3 * WEIGHT!$B$2)+(C3 * WEIGHT!$B$3)+(D3 * WEIGHT!$B$4)+(E3 * WEIGHT!$B$5)+(F3 * WEIGHT!$B$6)+(G3 * WEIGHT!$B$7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H4" s="1">
-        <f>(B4 * WEIGHT!$B$2)+(C4 * WEIGHT!$B$3)+(D4 * WEIGHT!$B$4)+(E4 * WEIGHT!$B$5)+(F4 * WEIGHT!$B$6)+(G4 * WEIGHT!$B$7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H5" s="1">
-        <f>(B5 * WEIGHT!$B$2)+(C5 * WEIGHT!$B$3)+(D5 * WEIGHT!$B$4)+(E5 * WEIGHT!$B$5)+(F5 * WEIGHT!$B$6)+(G5 * WEIGHT!$B$7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H6" s="1">
-        <f>(B6 * WEIGHT!$B$2)+(C6 * WEIGHT!$B$3)+(D6 * WEIGHT!$B$4)+(E6 * WEIGHT!$B$5)+(F6 * WEIGHT!$B$6)+(G6 * WEIGHT!$B$7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H7" s="1">
-        <f>(B7 * WEIGHT!$B$2)+(C7 * WEIGHT!$B$3)+(D7 * WEIGHT!$B$4)+(E7 * WEIGHT!$B$5)+(F7 * WEIGHT!$B$6)+(G7 * WEIGHT!$B$7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H8" s="1">
-        <f>(B8 * WEIGHT!$B$2)+(C8 * WEIGHT!$B$3)+(D8 * WEIGHT!$B$4)+(E8 * WEIGHT!$B$5)+(F8 * WEIGHT!$B$6)+(G8 * WEIGHT!$B$7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H9" s="1">
-        <f>(B9 * WEIGHT!$B$2)+(C9 * WEIGHT!$B$3)+(D9 * WEIGHT!$B$4)+(E9 * WEIGHT!$B$5)+(F9 * WEIGHT!$B$6)+(G9 * WEIGHT!$B$7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H10" s="1">
-        <f>(B10 * WEIGHT!$B$2)+(C10 * WEIGHT!$B$3)+(D10 * WEIGHT!$B$4)+(E10 * WEIGHT!$B$5)+(F10 * WEIGHT!$B$6)+(G10 * WEIGHT!$B$7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H11" s="1">
-        <f>(B11 * WEIGHT!$B$2)+(C11 * WEIGHT!$B$3)+(D11 * WEIGHT!$B$4)+(E11 * WEIGHT!$B$5)+(F11 * WEIGHT!$B$6)+(G11 * WEIGHT!$B$7)</f>
+      <c r="H3" s="2">
+        <f>SUMPRODUCT(B3:G3,$B$2:$G$2)/SUM($B$2:$G$2)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8926581-7732-43EB-A21A-AB435E56E9A6}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="16.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5">
+        <f>SUM(B2:H2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <f>SUMPRODUCT(B3:H3,$B$2:$H$2)/SUM($B$2:$H$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D01D783-D8D2-4402-B766-CC1FDE99DAC6}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="16.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
+        <f>SUM(B2:E2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <f>SUMPRODUCT(B3:E3,$B$2:$E$2)/SUM($B$2:$E$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECBD8CD-869A-4E2F-821C-A4054825A1AF}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5">
+        <f>SUM(B2:I2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="2">
+        <f>SUMPRODUCT(B3:I3,$B$2:$I$2)/SUM($B$2:$I$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A6FBCD-E705-401C-AB8D-E40313029672}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="16.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5">
+        <f>SUM(B2:G2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <f>SUMPRODUCT(B3:G3,$B$2:$G$2)/SUM($B$2:$G$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E949ED-2CB2-4714-98F2-CFCDF8F579E0}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="16.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5">
+        <v>40</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
+        <f>SUM(B2:F2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <f>SUMPRODUCT(B3:F3,$B$2:$F$2)/SUM($B$2:$F$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/data/ManualTemplate.xlsx
+++ b/public/data/ManualTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin.dizon\Documents\Projects\dftools\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935AE9FF-C069-4B08-A4C3-0B27CC6BB953}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862ADF3C-8684-4618-AE68-B4F6C12561D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,10 +177,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,157 +469,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE0C6AF-D1FB-49A2-BA68-2BFDC80FCC22}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4">
         <v>25</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>25</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>15</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>20</v>
       </c>
-      <c r="G2" s="5">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4">
         <f>SUM(B2:G2)</f>
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H3" s="2">
-        <f>SUMPRODUCT(B3:G3,$B$2:$G$2)/SUM($B$2:$G$2)</f>
-        <v>0</v>
-      </c>
-    </row>
+        <f>IF(ISNUMBER(G3), SUMPRODUCT(B3:G3,$B$2:$G$2)/SUM($B$2:$G$2), SUMPRODUCT(B3:F3,$B$2:$F$2)/SUM($B$2:$F$2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="18" x14ac:dyDescent="0.25"/>
+    <row r="19" x14ac:dyDescent="0.25"/>
+    <row r="20" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="H3" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63188E2-FDA2-4125-90AC-E4B08628145A}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="20.7109375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4">
         <v>34</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>26</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>15</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>10</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>10</v>
       </c>
-      <c r="G2" s="5">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4">
         <f>SUM(B2:G2)</f>
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H3" s="2">
-        <f>SUMPRODUCT(B3:G3,$B$2:$G$2)/SUM($B$2:$G$2)</f>
-        <v>0</v>
-      </c>
-    </row>
+        <f>IF(ISNUMBER(G3), SUMPRODUCT(B3:G3,$B$2:$G$2)/SUM($B$2:$G$2), SUMPRODUCT(B3:F3,$B$2:$F$2)/SUM($B$2:$F$2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="18" x14ac:dyDescent="0.25"/>
+    <row r="19" x14ac:dyDescent="0.25"/>
+    <row r="20" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
@@ -630,81 +661,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5FBD04-3D36-4B1A-A375-C883BE033494}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="16.7109375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4">
         <v>30</v>
       </c>
-      <c r="C2" s="5">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
         <v>15</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>20</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>20</v>
       </c>
-      <c r="H2" s="5">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="H2" s="4">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4">
         <f>SUM(B2:H2)</f>
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I3" s="2">
-        <f>SUMPRODUCT(B3:H3,$B$2:$H$2)/SUM($B$2:$H$2)</f>
-        <v>0</v>
-      </c>
-    </row>
+        <f>IF(ISNUMBER(H3), SUMPRODUCT(B3:H3,$B$2:$H$2)/SUM($B$2:$H$2), SUMPRODUCT(B3:G3,$B$2:$G$2)/SUM($B$2:$G$2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="18" x14ac:dyDescent="0.25"/>
+    <row r="19" x14ac:dyDescent="0.25"/>
+    <row r="20" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
@@ -715,75 +763,92 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FEEDEC-8BBC-4CDE-B326-58B05E9A3869}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="16.7109375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4">
         <v>30</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>20</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>15</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>20</v>
       </c>
-      <c r="G2" s="5">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4">
         <f>SUM(B2:G2)</f>
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H3" s="2">
-        <f>SUMPRODUCT(B3:G3,$B$2:$G$2)/SUM($B$2:$G$2)</f>
-        <v>0</v>
-      </c>
-    </row>
+        <f>IF(ISNUMBER(G3), SUMPRODUCT(B3:G3,$B$2:$G$2)/SUM($B$2:$G$2), SUMPRODUCT(LEGACY!B3:F3,$B$2:$F$2)/SUM($B$2:$F$2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="18" x14ac:dyDescent="0.25"/>
+    <row r="19" x14ac:dyDescent="0.25"/>
+    <row r="20" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
@@ -794,81 +859,98 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8926581-7732-43EB-A21A-AB435E56E9A6}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="16.7109375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4">
         <v>30</v>
       </c>
-      <c r="C2" s="5">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
         <v>15</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>20</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>20</v>
       </c>
-      <c r="H2" s="5">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="H2" s="4">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4">
         <f>SUM(B2:H2)</f>
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I3" s="2">
-        <f>SUMPRODUCT(B3:H3,$B$2:$H$2)/SUM($B$2:$H$2)</f>
-        <v>0</v>
-      </c>
-    </row>
+        <f>IF(ISNUMBER(H3), SUMPRODUCT(B3:H3,$B$2:$H$2)/SUM($B$2:$H$2), SUMPRODUCT(B3:G3,$B$2:$G$2)/SUM($B$2:$G$2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="18" x14ac:dyDescent="0.25"/>
+    <row r="19" x14ac:dyDescent="0.25"/>
+    <row r="20" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
@@ -879,63 +961,80 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D01D783-D8D2-4402-B766-CC1FDE99DAC6}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="16.7109375" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4">
         <v>50</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>30</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>15</v>
       </c>
-      <c r="E2" s="5">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4">
         <f>SUM(B2:E2)</f>
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="2">
-        <f>SUMPRODUCT(B3:E3,$B$2:$E$2)/SUM($B$2:$E$2)</f>
-        <v>0</v>
-      </c>
-    </row>
+        <f>IF(ISNUMBER(E3), SUMPRODUCT(B3:E3,$B$2:$E$2)/SUM($B$2:$E$2), SUMPRODUCT(B3:D3,$B$2:$D$2)/SUM($B$2:$D$2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="18" x14ac:dyDescent="0.25"/>
+    <row r="19" x14ac:dyDescent="0.25"/>
+    <row r="20" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
@@ -946,87 +1045,104 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECBD8CD-869A-4E2F-821C-A4054825A1AF}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="16.7109375" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4">
         <v>10</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>20</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>15</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>15</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>15</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>10</v>
       </c>
-      <c r="I2" s="5">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="I2" s="4">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4">
         <f>SUM(B2:I2)</f>
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J3" s="2">
-        <f>SUMPRODUCT(B3:I3,$B$2:$I$2)/SUM($B$2:$I$2)</f>
-        <v>0</v>
-      </c>
-    </row>
+        <f>IF(ISNUMBER(I3), SUMPRODUCT(B3:I3,$B$2:$I$2)/SUM($B$2:$I$2), SUMPRODUCT(B3:H3,$B$2:$H$2)/SUM($B$2:$H$2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="18" x14ac:dyDescent="0.25"/>
+    <row r="19" x14ac:dyDescent="0.25"/>
+    <row r="20" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
@@ -1037,13 +1153,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A6FBCD-E705-401C-AB8D-E40313029672}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="16.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1052,62 +1168,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4">
         <v>35</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>10</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>15</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>25</v>
       </c>
-      <c r="G2" s="5">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4">
         <f>SUM(B2:G2)</f>
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H3" s="2">
-        <f>SUMPRODUCT(B3:G3,$B$2:$G$2)/SUM($B$2:$G$2)</f>
-        <v>0</v>
-      </c>
-    </row>
+        <f>IF(ISNUMBER(G3), SUMPRODUCT(B3:G3,$B$2:$G$2)/SUM($B$2:$G$2), SUMPRODUCT(B3:F3,$B$2:$F$2)/SUM($B$2:$F$2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="18" x14ac:dyDescent="0.25"/>
+    <row r="19" x14ac:dyDescent="0.25"/>
+    <row r="20" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
@@ -1118,13 +1251,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E949ED-2CB2-4714-98F2-CFCDF8F579E0}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="16.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="2" customWidth="1"/>
@@ -1133,56 +1266,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4">
         <v>40</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>20</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>25</v>
       </c>
-      <c r="F2" s="5">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
         <f>SUM(B2:F2)</f>
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G3" s="2">
-        <f>SUMPRODUCT(B3:F3,$B$2:$F$2)/SUM($B$2:$F$2)</f>
-        <v>0</v>
-      </c>
-    </row>
+        <f>IF(ISNUMBER(F3), SUMPRODUCT(B3:F3,$B$2:$F$2)/SUM($B$2:$F$2), SUMPRODUCT(B3:E3,$B$2:$E$2)/SUM($B$2:$E$2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="18" x14ac:dyDescent="0.25"/>
+    <row r="19" x14ac:dyDescent="0.25"/>
+    <row r="20" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
